--- a/NET/CygnusAzure/Cygnus2-0/BaseDatos/Hojas.xlsx
+++ b/NET/CygnusAzure/Cygnus2-0/BaseDatos/Hojas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Luis\Trabajo\Desarrollo\Repositorio\Dirtrab\Net\CygnusWPF\CygnusAzure\Cygnus2-0\BaseDatos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Luis\Trabajo\Desarrollo\Repositorio\Cygnus\NET\CygnusAzure\Cygnus2-0\BaseDatos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9955DE3-937D-43A8-90B8-647D6654BBF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F9211BB-EFDB-46EE-A636-DADB9251BD51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1725" windowWidth="14670" windowHeight="8325" activeTab="2" xr2:uid="{1F68A498-5254-4B60-89DF-2B66B159A112}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="20730" windowHeight="11310" xr2:uid="{1F68A498-5254-4B60-89DF-2B66B159A112}"/>
   </bookViews>
   <sheets>
     <sheet name="2020" sheetId="1" r:id="rId1"/>
@@ -22,20 +22,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="53">
   <si>
     <t>Semana 1</t>
   </si>
@@ -256,7 +248,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -552,13 +544,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21D7AC25-2B0D-420E-98E3-1E4E8AF6899A}">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D40"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40:D53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -589,7 +581,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="str">
-        <f t="shared" ref="D2:D40" si="0">CONCATENATE("insert into ll_hoja (CODIGO, FECHA_INI, FECHA_FIN, DESCRIPCION) values(seq_ll_hoja.nextval,'",TEXT(A2, "dd/mm/YYYY"),"','",,TEXT(B2, "dd/mm/YYYY"),"','",C2,"');")</f>
+        <f t="shared" ref="D2:D53" si="0">CONCATENATE("insert into ll_hoja (CODIGO, FECHA_INI, FECHA_FIN, DESCRIPCION) values(seq_ll_hoja.nextval,'",TEXT(A2, "dd/mm/YYYY"),"','",,TEXT(B2, "dd/mm/YYYY"),"','",C2,"');")</f>
         <v>insert into ll_hoja (CODIGO, FECHA_INI, FECHA_FIN, DESCRIPCION) values(seq_ll_hoja.nextval,'06/01/2020','12/01/2020','Semana 2');</v>
       </c>
     </row>
@@ -1161,6 +1153,201 @@
       <c r="D40" t="str">
         <f t="shared" si="0"/>
         <v>insert into ll_hoja (CODIGO, FECHA_INI, FECHA_FIN, DESCRIPCION) values(seq_ll_hoja.nextval,'28/09/2020','04/10/2020','Semana 40');</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>44109</v>
+      </c>
+      <c r="B41" s="1">
+        <v>44115</v>
+      </c>
+      <c r="C41" t="s">
+        <v>40</v>
+      </c>
+      <c r="D41" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ll_hoja (CODIGO, FECHA_INI, FECHA_FIN, DESCRIPCION) values(seq_ll_hoja.nextval,'05/10/2020','11/10/2020','Semana 41');</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>44116</v>
+      </c>
+      <c r="B42" s="1">
+        <v>44122</v>
+      </c>
+      <c r="C42" t="s">
+        <v>41</v>
+      </c>
+      <c r="D42" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ll_hoja (CODIGO, FECHA_INI, FECHA_FIN, DESCRIPCION) values(seq_ll_hoja.nextval,'12/10/2020','18/10/2020','Semana 42');</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>44123</v>
+      </c>
+      <c r="B43" s="1">
+        <v>44129</v>
+      </c>
+      <c r="C43" t="s">
+        <v>42</v>
+      </c>
+      <c r="D43" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ll_hoja (CODIGO, FECHA_INI, FECHA_FIN, DESCRIPCION) values(seq_ll_hoja.nextval,'19/10/2020','25/10/2020','Semana 43');</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>44130</v>
+      </c>
+      <c r="B44" s="1">
+        <v>44136</v>
+      </c>
+      <c r="C44" t="s">
+        <v>43</v>
+      </c>
+      <c r="D44" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ll_hoja (CODIGO, FECHA_INI, FECHA_FIN, DESCRIPCION) values(seq_ll_hoja.nextval,'26/10/2020','01/11/2020','Semana 44');</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>44137</v>
+      </c>
+      <c r="B45" s="1">
+        <v>44143</v>
+      </c>
+      <c r="C45" t="s">
+        <v>44</v>
+      </c>
+      <c r="D45" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ll_hoja (CODIGO, FECHA_INI, FECHA_FIN, DESCRIPCION) values(seq_ll_hoja.nextval,'02/11/2020','08/11/2020','Semana 45');</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>44144</v>
+      </c>
+      <c r="B46" s="1">
+        <v>44150</v>
+      </c>
+      <c r="C46" t="s">
+        <v>45</v>
+      </c>
+      <c r="D46" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ll_hoja (CODIGO, FECHA_INI, FECHA_FIN, DESCRIPCION) values(seq_ll_hoja.nextval,'09/11/2020','15/11/2020','Semana 46');</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>44151</v>
+      </c>
+      <c r="B47" s="1">
+        <v>44157</v>
+      </c>
+      <c r="C47" t="s">
+        <v>46</v>
+      </c>
+      <c r="D47" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ll_hoja (CODIGO, FECHA_INI, FECHA_FIN, DESCRIPCION) values(seq_ll_hoja.nextval,'16/11/2020','22/11/2020','Semana 47');</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>44158</v>
+      </c>
+      <c r="B48" s="1">
+        <v>44164</v>
+      </c>
+      <c r="C48" t="s">
+        <v>47</v>
+      </c>
+      <c r="D48" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ll_hoja (CODIGO, FECHA_INI, FECHA_FIN, DESCRIPCION) values(seq_ll_hoja.nextval,'23/11/2020','29/11/2020','Semana 48');</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>44165</v>
+      </c>
+      <c r="B49" s="1">
+        <v>44171</v>
+      </c>
+      <c r="C49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D49" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ll_hoja (CODIGO, FECHA_INI, FECHA_FIN, DESCRIPCION) values(seq_ll_hoja.nextval,'30/11/2020','06/12/2020','Semana 49');</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>44172</v>
+      </c>
+      <c r="B50" s="1">
+        <v>44178</v>
+      </c>
+      <c r="C50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D50" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ll_hoja (CODIGO, FECHA_INI, FECHA_FIN, DESCRIPCION) values(seq_ll_hoja.nextval,'07/12/2020','13/12/2020','Semana 50');</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>44179</v>
+      </c>
+      <c r="B51" s="1">
+        <v>44185</v>
+      </c>
+      <c r="C51" t="s">
+        <v>50</v>
+      </c>
+      <c r="D51" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ll_hoja (CODIGO, FECHA_INI, FECHA_FIN, DESCRIPCION) values(seq_ll_hoja.nextval,'14/12/2020','20/12/2020','Semana 51');</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>44186</v>
+      </c>
+      <c r="B52" s="1">
+        <v>44192</v>
+      </c>
+      <c r="C52" t="s">
+        <v>51</v>
+      </c>
+      <c r="D52" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ll_hoja (CODIGO, FECHA_INI, FECHA_FIN, DESCRIPCION) values(seq_ll_hoja.nextval,'21/12/2020','27/12/2020','Semana 52');</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>44193</v>
+      </c>
+      <c r="B53" s="1">
+        <v>44199</v>
+      </c>
+      <c r="C53" t="s">
+        <v>52</v>
+      </c>
+      <c r="D53" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ll_hoja (CODIGO, FECHA_INI, FECHA_FIN, DESCRIPCION) values(seq_ll_hoja.nextval,'28/12/2020','03/01/2021','Semana 53');</v>
       </c>
     </row>
   </sheetData>
@@ -1174,11 +1361,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBCD176F-77F7-4AD1-BB33-D5256A99FB9F}">
   <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1:D52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
@@ -1971,11 +2158,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F52793F-4965-447B-810B-D5049F01870E}">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="D1" sqref="D1:D53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
